--- a/문서/SkillString.xlsx
+++ b/문서/SkillString.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32F1A39-D24F-4DA2-8664-2104C3701A8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752E77EC-5EFE-43BF-9BF3-35D5D4C74727}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="4170" windowWidth="23910" windowHeight="11295" xr2:uid="{F740CA7F-E504-4B69-B592-28815E88BB93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F740CA7F-E504-4B69-B592-28815E88BB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,61 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무기로 공격합니다.
-공격력의 {effect_A} % 수준으로 데미지를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 사기를 꺾어 공격력을 감소시킵니다.
-공격력을 {effect_A} % 수준으로 낮춥니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적에게 출혈을 일으킵니다.
-공격력의 {effect_A} % 만큼 데미지를 입히고, 2턴간 {effect_B} % 만큼의 데미지를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 강한 힘으로 공격하여 데미지를 입히고, 공격력을 감소시킵니다.
-공격력의 {effect_A} % 만큼 데미지를 입히고, 3턴간 {effect_B} % 만큼 공격력을 감소 시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 연속으로 공격합니다.
-공격력의 {effect_A} % 만큼 데미지를 입히고, 추가로 공격해 {effect_B} % 만큼 공격력을 감소 시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적에게 주문을 걸어 방어력을 낮춥니다.
-3턴간 방어력을 {effect_A} % 로 낮춥니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군에게 주문을 걸어 공격력을 상승시킵니다.
-2턴간 공격력을 {effect_A} % 로 상승시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군에게 주문을 걸어 방어력을 상승시킵니다.
-2턴간 방어력을 {effect_A} % 로 상승시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군을 회복시킵니다.
-해당 아군 최대 체력의 {effect_A} % 를 회복시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군에게 강력한 주문을 걸어 방어력을 극대화 합니다.
-1턴 간 해당 아군의 방어력을 {effect_A} % 로 상승시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강한 마법을 사용하여 적 전체에 피해를 입힙니다.
-공격력의 {effect_A} % 만큼 데미지를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포션을 마셔 체력을 회복합니다.
 사용한 대상의 최대 체력의 {effect_A} % 만큼 회복합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +47,72 @@
   <si>
     <t>스크롤을 사용하여 적 전체에게 폭발을 일으킵니다.
 소유자 공격력의 {effect_A} % 만큼 데미지를 적 전체에 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 출혈을 일으킵니다.
+{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 2턴간 {effect_B} % 만큼의 데미지를 입힙니다.
+MP {effect_A_Cost} % 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기로 공격합니다.
+{effect_A_Prob} % 확률로 공격력의 {effect_A} % 수준으로 데미지를 입힙니다.
+MP 소모 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 사기를 꺾어 공격력을 감소시킵니다.
+{effect_A_Prob} % 확률로 공격력을 {effect_A} % 수준으로 낮춥니다.
+MP {effect_A_Cost} 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 강한 힘으로 공격하여 데미지를 입히고, 공격력을 감소시킵니다.
+{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 3턴간 {effect_B} % 만큼 공격력을 감소 시킵니다.
+MP {effect_A_Cost} 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 연속으로 공격합니다.
+{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 추가로 공격해 {effect_B} % 만큼 공격력을 감소 시킵니다.
+MP {effect_A_Cost} 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주문을 걸어 방어력을 낮춥니다.
+{effect_A_Prob} % 확률로 3턴간 방어력을 {effect_A} % 로 낮춥니다.
+MP {effect_A_Cost} 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군에게 주문을 걸어 공격력을 상승시킵니다.
+{effect_A_Prob} % 확률로 2턴간 공격력을 {effect_A} % 로 상승시킵니다.
+MP {effect_A_Cost} 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군에게 주문을 걸어 방어력을 상승시킵니다.
+{effect_A_Prob} % 확률로 2턴간 방어력을 {effect_A} % 로 상승시킵니다.
+MP {effect_A_Cost} 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군을 회복시킵니다.
+{effect_A_Prob} % 확률로 해당 아군 최대 체력의 {effect_A} % 를 회복시킵니다.
+MP {effect_A_Cost} 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군에게 강력한 주문을 걸어 방어력을 극대화 합니다.
+{effect_A_Prob} % 확률로 1턴 간 해당 아군의 방어력을 {effect_A} % 로 상승시킵니다.
+MP {effect_A_Cost} 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 마법을 사용하여 적 전체에 피해를 입힙니다.
+{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입힙니다.
+MP {effect_A_Cost} 소모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2096A2-B9F7-47D2-804F-73BBD70ABD88}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -491,92 +502,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -584,7 +595,7 @@
         <v>11201</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -592,7 +603,7 @@
         <v>11202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -600,7 +611,7 @@
         <v>11203</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/문서/SkillString.xlsx
+++ b/문서/SkillString.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752E77EC-5EFE-43BF-9BF3-35D5D4C74727}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA69F1-265E-44B6-BAA7-825B9495AE5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F740CA7F-E504-4B69-B592-28815E88BB93}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,84 +35,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포션을 마셔 체력을 회복합니다.
-사용한 대상의 최대 체력의 {effect_A} % 만큼 회복합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크롤을 사용하여 공격력을 증가시킵니다.
-2턴 간 공격력을 {effect_A} % 로 증가시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크롤을 사용하여 적 전체에게 폭발을 일으킵니다.
-소유자 공격력의 {effect_A} % 만큼 데미지를 적 전체에 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적에게 출혈을 일으킵니다.
-{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 2턴간 {effect_B} % 만큼의 데미지를 입힙니다.
-MP {effect_A_Cost} % 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기로 공격합니다.
-{effect_A_Prob} % 확률로 공격력의 {effect_A} % 수준으로 데미지를 입힙니다.
-MP 소모 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적의 사기를 꺾어 공격력을 감소시킵니다.
-{effect_A_Prob} % 확률로 공격력을 {effect_A} % 수준으로 낮춥니다.
-MP {effect_A_Cost} 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 강한 힘으로 공격하여 데미지를 입히고, 공격력을 감소시킵니다.
-{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 3턴간 {effect_B} % 만큼 공격력을 감소 시킵니다.
-MP {effect_A_Cost} 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 연속으로 공격합니다.
-{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 추가로 공격해 {effect_B} % 만큼 공격력을 감소 시킵니다.
-MP {effect_A_Cost} 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적에게 주문을 걸어 방어력을 낮춥니다.
-{effect_A_Prob} % 확률로 3턴간 방어력을 {effect_A} % 로 낮춥니다.
-MP {effect_A_Cost} 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군에게 주문을 걸어 공격력을 상승시킵니다.
-{effect_A_Prob} % 확률로 2턴간 공격력을 {effect_A} % 로 상승시킵니다.
-MP {effect_A_Cost} 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군에게 주문을 걸어 방어력을 상승시킵니다.
-{effect_A_Prob} % 확률로 2턴간 방어력을 {effect_A} % 로 상승시킵니다.
-MP {effect_A_Cost} 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군을 회복시킵니다.
-{effect_A_Prob} % 확률로 해당 아군 최대 체력의 {effect_A} % 를 회복시킵니다.
-MP {effect_A_Cost} 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군에게 강력한 주문을 걸어 방어력을 극대화 합니다.
-{effect_A_Prob} % 확률로 1턴 간 해당 아군의 방어력을 {effect_A} % 로 상승시킵니다.
-MP {effect_A_Cost} 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강한 마법을 사용하여 적 전체에 피해를 입힙니다.
-{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입힙니다.
-MP {effect_A_Cost} 소모</t>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 공격력의 {effect_A} % 수준으로 데미지를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP 소모 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기로 공격합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 2턴간 {effect_B} % 만큼의 데미지를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP {effect_A_Cost} % 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 출혈을 일으킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 공격력을 {effect_A} % 수준으로 낮춥니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP {effect_A_Cost} 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 사기를 꺾어 공격력을 감소시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 3턴간 {effect_B} % 만큼 공격력을 감소 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 강한 힘으로 공격하여 데미지를 입히고, 공격력을 감소시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 추가로 공격해 {effect_B} % 만큼 공격력을 감소 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 연속으로 공격합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 3턴간 방어력을 {effect_A} % 로 낮춥니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주문을 걸어 방어력을 낮춥니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 2턴간 공격력을 {effect_A} % 로 상승시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군에게 주문을 걸어 공격력을 상승시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 2턴간 방어력을 {effect_A} % 로 상승시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군에게 주문을 걸어 방어력을 상승시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 해당 아군 최대 체력의 {effect_A} % 를 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군을 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 1턴 간 해당 아군의 방어력을 {effect_A} % 로 상승시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군에게 강력한 주문을 걸어 방어력을 극대화 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 마법을 사용하여 적 전체에 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용한 대상의 최대 체력의 {effect_A} % 만큼 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션을 마셔 체력을 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2턴 간 공격력을 {effect_A} % 로 증가시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤을 사용하여 공격력을 증가시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소유자 공격력의 {effect_A} % 만큼 데미지를 적 전체에 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤을 사용하여 적 전체에게 폭발을 일으킵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,135 +530,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2096A2-B9F7-47D2-804F-73BBD70ABD88}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="80.875" customWidth="1"/>
+    <col min="3" max="3" width="80.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>10102</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>10103</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10104</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10104</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10104</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>10105</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>10105</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>10105</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>10106</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>10106</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>10106</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>10107</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>10107</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>10107</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>10108</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>10108</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>10108</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>10109</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>10109</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>10109</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>10110</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>10110</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>10110</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>10111</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>10111</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>10111</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>11201</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>11201</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>11202</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>11202</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>11203</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>11203</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/문서/SkillString.xlsx
+++ b/문서/SkillString.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Repo\basefile\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAA69F1-265E-44B6-BAA7-825B9495AE5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1D52A4-FF68-46C6-A24D-71EE16BE7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F740CA7F-E504-4B69-B592-28815E88BB93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F740CA7F-E504-4B69-B592-28815E88BB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{effect_A_Prob} % 확률로 공격력의 {effect_A} % 수준으로 데미지를 입힙니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MP {effect_A_Cost} % 소모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적에게 출혈을 일으킵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +148,18 @@
   </si>
   <si>
     <t>스크롤을 사용하여 적 전체에게 폭발을 일으킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string_first</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string_second</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string_third</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,455 +530,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2096A2-B9F7-47D2-804F-73BBD70ABD88}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="80.875" customWidth="1"/>
+    <col min="2" max="2" width="80.875" customWidth="1"/>
+    <col min="3" max="3" width="110.75" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10101</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>10101</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>10101</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
+        <v>10103</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>10102</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
+        <v>10104</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>10102</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
+        <v>10105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>10102</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
+        <v>10106</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>10103</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
+        <v>10107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>10103</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
+        <v>10108</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>10103</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
+        <v>10109</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10104</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
+        <v>10110</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10104</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
+        <v>10111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>10104</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
+        <v>11201</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>10105</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
+        <v>11202</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>10105</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
+        <v>11203</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>10105</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>10106</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>10106</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>10106</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>10107</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>10107</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>10107</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>10108</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>10108</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>10108</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>10109</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>10109</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>10109</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>10110</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>10110</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>10110</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>10111</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>10111</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>10111</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>11201</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>11201</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>11202</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>11202</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>11203</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>11203</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/문서/SkillString.xlsx
+++ b/문서/SkillString.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Repo\basefile\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1D52A4-FF68-46C6-A24D-71EE16BE7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE7BEF3-8F26-4323-BEA7-E5AC967B15A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F740CA7F-E504-4B69-B592-28815E88BB93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F740CA7F-E504-4B69-B592-28815E88BB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10104</v>
       </c>

--- a/문서/SkillString.xlsx
+++ b/문서/SkillString.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE7BEF3-8F26-4323-BEA7-E5AC967B15A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2C674-9086-4C5B-8489-03A4ECE77334}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F740CA7F-E504-4B69-B592-28815E88BB93}"/>
   </bookViews>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{effect_A_Prob} % 확률로 공격력을 {effect_A} % 수준으로 낮춥니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MP {effect_A_Cost} 소모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,26 +59,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 3턴간 {effect_B} % 만큼 공격력을 감소 시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적을 강한 힘으로 공격하여 데미지를 입히고, 공격력을 감소시킵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 추가로 공격해 {effect_B} % 만큼 공격력을 감소 시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적을 연속으로 공격합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{effect_A_Prob} % 확률로 3턴간 방어력을 {effect_A} % 로 낮춥니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적에게 주문을 걸어 방어력을 낮춥니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{effect_A_Prob} % 확률로 2턴간 방어력을 {effect_A} % 로 상승시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아군에게 주문을 걸어 방어력을 상승시킵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{effect_A_Prob} % 확률로 1턴 간 해당 아군의 방어력을 {effect_A} % 로 상승시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아군에게 강력한 주문을 걸어 방어력을 극대화 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +136,30 @@
   </si>
   <si>
     <t>string_third</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 3턴간 해당 적의 공격력을 {effect_B} % 로 감소 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 공격력의 {effect_A} % 만큼 데미지를 입히고, 추가로 공격해 {effect_B} % 만큼의 데미지를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 3턴간 데미지를 {effect_A} % 만큼 더 받게 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 2턴간 데미지를 {effect_A} % 만큼 덜 받게 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 1턴 간 해당 아군이 데미지를 {effect_A} % 만큼 덜 받게 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 해당 적의 공격력을 {effect_B} % 로 감소 시킵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +533,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -590,13 +590,13 @@
         <v>10103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -604,13 +604,13 @@
         <v>10104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -618,13 +618,13 @@
         <v>10105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -632,13 +632,13 @@
         <v>10106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -646,13 +646,13 @@
         <v>10107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -660,13 +660,13 @@
         <v>10108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -674,13 +674,13 @@
         <v>10109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -688,13 +688,13 @@
         <v>10110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -702,13 +702,13 @@
         <v>10111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -716,10 +716,10 @@
         <v>11201</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -727,10 +727,10 @@
         <v>11202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -738,10 +738,10 @@
         <v>11203</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/문서/SkillString.xlsx
+++ b/문서/SkillString.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2C674-9086-4C5B-8489-03A4ECE77334}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806B27EA-95B2-4DD6-AD05-BBCA4D73222B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F740CA7F-E504-4B69-B592-28815E88BB93}"/>
   </bookViews>
@@ -151,15 +151,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{effect_A_Prob} % 확률로 2턴간 데미지를 {effect_A} % 만큼 덜 받게 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{effect_A_Prob} % 확률로 1턴 간 해당 아군이 데미지를 {effect_A} % 만큼 덜 받게 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{effect_A_Prob} % 확률로 해당 적의 공격력을 {effect_B} % 로 감소 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 1턴 간 해당 아군이 데미지를 {effect_A} % 로 받게 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{effect_A_Prob} % 확률로 2턴간 데미지를 {effect_A} % 로 받게 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +533,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -593,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -663,7 +663,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
